--- a/D2/Progress Tracking Matrix.xlsx
+++ b/D2/Progress Tracking Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course\Fall 2023\SOEN 6611\D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course\Fall 2023\SOEN 6611\Project Github\SOEN-6611\D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC7B0C2-A638-4F78-B164-E68ADD0510A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC8040-8CA4-4EF3-9951-6210B9BB10A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,17 +418,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -446,32 +438,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -515,7 +492,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,7 +576,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,7 +716,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,11 +744,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,7 +908,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10587,7 +10564,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10759,7 +10736,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>88900</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10931,7 +10908,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11103,7 +11080,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11275,7 +11252,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11350,14 +11327,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="215900"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2347" name="Check Box 299" hidden="1">
@@ -11366,7 +11348,7 @@
                   <a14:compatExt spid="_x0000_s2347"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B446B4E5-7386-4ACB-BB5B-B798488789A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11425,20 +11407,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="692150" cy="215900"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>88900</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2348" name="Check Box 300" hidden="1">
@@ -11447,7 +11434,7 @@
                   <a14:compatExt spid="_x0000_s2348"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C9D121-DA38-4E15-A62F-7B745682AFBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11506,20 +11493,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="895350" cy="215900"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2349" name="Check Box 301" hidden="1">
@@ -11528,7 +11520,7 @@
                   <a14:compatExt spid="_x0000_s2349"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6790A914-C921-4BC6-B568-DF236F4BEA73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11587,20 +11579,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="215900"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2350" name="Check Box 302" hidden="1">
@@ -11609,7 +11606,7 @@
                   <a14:compatExt spid="_x0000_s2350"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC20639-6D91-46E3-ACC6-4FDA1E9C5D11}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11668,20 +11665,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="215900"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2351" name="Check Box 303" hidden="1">
@@ -11690,7 +11692,7 @@
                   <a14:compatExt spid="_x0000_s2351"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5C0EBB-FDBF-463D-B22C-E5FAA76D6F0F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11749,20 +11751,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="215900"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2352" name="Check Box 304" hidden="1">
@@ -11771,7 +11778,7 @@
                   <a14:compatExt spid="_x0000_s2352"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4C8EA1-334D-492F-ABF8-C938E742D6A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11830,20 +11837,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="692150" cy="215900"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>88900</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2353" name="Check Box 305" hidden="1">
@@ -11852,7 +11864,7 @@
                   <a14:compatExt spid="_x0000_s2353"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18FC126-9037-44FA-8C8F-35BA3DFEFE29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11911,20 +11923,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="895350" cy="215900"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2354" name="Check Box 306" hidden="1">
@@ -11933,7 +11950,7 @@
                   <a14:compatExt spid="_x0000_s2354"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27A8CB8-2266-4387-9AF0-4A5445B31BCE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11992,20 +12009,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="215900"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2355" name="Check Box 307" hidden="1">
@@ -12014,7 +12036,7 @@
                   <a14:compatExt spid="_x0000_s2355"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBE068D-D996-4BE1-BFDE-3C98BE5ECACC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12073,20 +12095,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="215900"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2356" name="Check Box 308" hidden="1">
@@ -12095,7 +12122,7 @@
                   <a14:compatExt spid="_x0000_s2356"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A3743C-94EB-49E5-91CF-3952846E61A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034090000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12154,7 +12181,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -12425,18 +12452,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DE5376-3BC2-475F-BDD3-FC8308E02220}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
     <col min="5" max="5" width="10.90625" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" customWidth="1"/>
@@ -12444,28 +12471,28 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -12475,15 +12502,14 @@
       <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -12496,204 +12522,191 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="20"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="20"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="20"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="20"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="20"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="20"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="20"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="20"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="20"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34" t="s">
+    <row r="15" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="20"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -12701,17 +12714,16 @@
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="13"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -12724,76 +12736,71 @@
       <c r="F17" s="15"/>
       <c r="G17" s="11"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31" t="s">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="20"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31" t="s">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="20"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="27"/>
+      <c r="B21" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="20"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -12801,33 +12808,31 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="13"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="20"/>
+      <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="20"/>
+      <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>6</v>
@@ -12840,42 +12845,39 @@
       <c r="F24" s="15"/>
       <c r="G24" s="11"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="20"/>
+      <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31" t="s">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="20"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/D2/Progress Tracking Matrix.xlsx
+++ b/D2/Progress Tracking Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course\Fall 2023\SOEN 6611\Project Github\SOEN-6611\D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SOEN-6611\D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC8040-8CA4-4EF3-9951-6210B9BB10A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA4E03-7B2E-4600-9445-89F02E36E516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Problems</t>
   </si>
@@ -122,13 +122,7 @@
     <t>Analysis - correlation coefficient</t>
   </si>
   <si>
-    <t>In the progress</t>
-  </si>
-  <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Not Start</t>
   </si>
   <si>
     <t>Code - UI Enhancement</t>
@@ -1018,7 +1012,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1067,14 +1061,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1104,7 +1098,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1153,14 +1147,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1239,14 +1233,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1276,7 +1270,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1325,14 +1319,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1362,7 +1356,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1411,14 +1405,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1448,7 +1442,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1497,14 +1491,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1534,7 +1528,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1583,14 +1577,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1620,7 +1614,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1669,14 +1663,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1706,7 +1700,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1755,14 +1749,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1792,7 +1786,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1841,14 +1835,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1878,7 +1872,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1927,14 +1921,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1964,7 +1958,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2013,14 +2007,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2050,7 +2044,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2099,14 +2093,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2185,14 +2179,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2222,7 +2216,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2271,14 +2265,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2308,7 +2302,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2357,14 +2351,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2394,7 +2388,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2443,14 +2437,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2529,14 +2523,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2566,7 +2560,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2615,14 +2609,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2652,7 +2646,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2701,14 +2695,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2787,14 +2781,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2824,7 +2818,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2873,14 +2867,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2908,9 +2902,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2959,14 +2953,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2994,9 +2988,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3045,14 +3039,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3080,7 +3074,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3131,14 +3125,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3166,9 +3160,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3217,14 +3211,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3252,9 +3246,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3303,14 +3297,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3338,9 +3332,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3389,14 +3383,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3424,9 +3418,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3475,14 +3469,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3510,9 +3504,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3561,14 +3555,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3596,9 +3590,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3647,14 +3641,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3682,9 +3676,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3733,14 +3727,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3768,9 +3762,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3819,14 +3813,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3854,9 +3848,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3905,14 +3899,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3940,9 +3934,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3991,14 +3985,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4026,7 +4020,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4077,14 +4071,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4112,9 +4106,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4163,14 +4157,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4198,9 +4192,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4249,14 +4243,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4284,9 +4278,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4335,14 +4329,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4370,7 +4364,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4421,14 +4415,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4456,9 +4450,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4507,14 +4501,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4542,9 +4536,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4593,14 +4587,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4628,7 +4622,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4679,14 +4673,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4714,9 +4708,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4765,14 +4759,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4802,7 +4796,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4851,14 +4845,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4888,7 +4882,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4937,14 +4931,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5023,14 +5017,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5060,7 +5054,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5109,14 +5103,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5146,7 +5140,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5195,14 +5189,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5232,7 +5226,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5281,14 +5275,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5318,7 +5312,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5367,14 +5361,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5404,7 +5398,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5453,14 +5447,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5490,7 +5484,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5539,14 +5533,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5576,7 +5570,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5625,14 +5619,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5662,7 +5656,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5711,14 +5705,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5748,7 +5742,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5797,14 +5791,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5834,7 +5828,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5883,14 +5877,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5969,14 +5963,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6006,7 +6000,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6055,14 +6049,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6092,7 +6086,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6141,14 +6135,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6178,7 +6172,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6227,14 +6221,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6313,14 +6307,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6350,7 +6344,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6399,14 +6393,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6436,7 +6430,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6485,14 +6479,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6571,14 +6565,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6608,7 +6602,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6657,14 +6651,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6694,7 +6688,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6743,14 +6737,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6780,7 +6774,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6829,14 +6823,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6915,14 +6909,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6952,7 +6946,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7001,14 +6995,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7038,7 +7032,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7087,14 +7081,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7124,7 +7118,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7173,14 +7167,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7210,7 +7204,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7259,14 +7253,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7296,7 +7290,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7345,14 +7339,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7382,7 +7376,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7431,14 +7425,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7468,7 +7462,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7517,14 +7511,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7554,7 +7548,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7603,14 +7597,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7640,7 +7634,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7689,14 +7683,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7726,7 +7720,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7775,14 +7769,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7861,14 +7855,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7898,7 +7892,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7947,14 +7941,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7984,7 +7978,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8033,14 +8027,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8070,7 +8064,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8119,14 +8113,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8205,14 +8199,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8242,7 +8236,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8291,14 +8285,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8328,7 +8322,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8377,14 +8371,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8463,14 +8457,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8500,7 +8494,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8549,14 +8543,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8586,7 +8580,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8635,14 +8629,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8672,7 +8666,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8721,14 +8715,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8807,14 +8801,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8844,7 +8838,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8893,14 +8887,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8930,7 +8924,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8979,14 +8973,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9016,7 +9010,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9065,14 +9059,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9102,7 +9096,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9151,14 +9145,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9188,7 +9182,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9237,14 +9231,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9274,7 +9268,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9323,14 +9317,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9360,7 +9354,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9409,14 +9403,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9446,7 +9440,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9495,14 +9489,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9532,7 +9526,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9581,14 +9575,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9618,7 +9612,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9667,14 +9661,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9753,14 +9747,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9790,7 +9784,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9839,14 +9833,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9876,7 +9870,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9925,14 +9919,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9962,7 +9956,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10011,14 +10005,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10097,14 +10091,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10134,7 +10128,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10183,14 +10177,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10220,7 +10214,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10269,14 +10263,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10355,14 +10349,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10392,7 +10386,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10441,14 +10435,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10478,7 +10472,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10527,14 +10521,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10564,7 +10558,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10613,14 +10607,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10648,9 +10642,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10699,14 +10693,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10734,9 +10728,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10785,14 +10779,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10822,7 +10816,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10871,14 +10865,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10908,7 +10902,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10957,14 +10951,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10994,7 +10988,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11043,14 +11037,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11080,7 +11074,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11129,14 +11123,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11166,7 +11160,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11215,14 +11209,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11252,7 +11246,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11301,14 +11295,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11338,7 +11332,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11387,14 +11381,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11422,9 +11416,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11473,14 +11467,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11510,7 +11504,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11559,14 +11553,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11596,7 +11590,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11645,14 +11639,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11682,7 +11676,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11731,14 +11725,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11817,14 +11811,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11852,7 +11846,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11903,14 +11897,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11989,14 +11983,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12075,14 +12069,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12161,14 +12155,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12455,23 +12449,23 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12489,10 +12483,10 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -12500,7 +12494,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
@@ -12509,7 +12503,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -12524,15 +12518,15 @@
       <c r="H3" s="9"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>29</v>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="24"/>
@@ -12541,13 +12535,13 @@
       <c r="H4" s="26"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27"/>
       <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>29</v>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="28"/>
@@ -12556,12 +12550,12 @@
       <c r="H5" s="29"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="12"/>
@@ -12571,13 +12565,13 @@
       <c r="H6" s="29"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="28"/>
@@ -12586,12 +12580,12 @@
       <c r="H7" s="29"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="12"/>
@@ -12601,12 +12595,12 @@
       <c r="H8" s="29"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="12"/>
@@ -12616,12 +12610,12 @@
       <c r="H9" s="29"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="12"/>
@@ -12631,12 +12625,12 @@
       <c r="H10" s="29"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="12"/>
@@ -12646,12 +12640,12 @@
       <c r="H11" s="29"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="31"/>
@@ -12661,13 +12655,13 @@
       <c r="H12" s="33"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -12676,13 +12670,13 @@
       <c r="H13" s="33"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>29</v>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
@@ -12691,12 +12685,12 @@
       <c r="H14" s="33"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
       <c r="B15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="31"/>
@@ -12706,7 +12700,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -12714,7 +12708,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="11"/>
@@ -12723,13 +12717,13 @@
       <c r="H16" s="9"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="15"/>
@@ -12738,14 +12732,14 @@
       <c r="H17" s="14"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="23"/>
@@ -12755,12 +12749,12 @@
       <c r="H18" s="29"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27"/>
       <c r="B19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="12"/>
@@ -12770,12 +12764,12 @@
       <c r="H19" s="29"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="12"/>
@@ -12785,13 +12779,13 @@
       <c r="H20" s="29"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
       <c r="B21" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>30</v>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="32"/>
@@ -12800,7 +12794,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -12808,7 +12802,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="11"/>
@@ -12817,13 +12811,13 @@
       <c r="H22" s="9"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="11"/>
@@ -12832,13 +12826,13 @@
       <c r="H23" s="9"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="15"/>
@@ -12847,15 +12841,15 @@
       <c r="H24" s="14"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>30</v>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="28"/>
@@ -12864,13 +12858,13 @@
       <c r="H25" s="29"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>30</v>
+      <c r="C26" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="28"/>
@@ -12895,19 +12889,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{CA063A11-2583-46D3-923B-7BB349173152}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{889A6B79-2F4E-4B37-9056-9A42F0EEF14D}">
       <formula1>"Not Start, In the progress, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2226" r:id="rId3" name="Check Box 178">
+            <control shapeId="2226" r:id="rId4" name="Check Box 178">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12920,7 +12915,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12929,7 +12924,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2227" r:id="rId4" name="Check Box 179">
+            <control shapeId="2227" r:id="rId5" name="Check Box 179">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12942,7 +12937,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12951,7 +12946,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2228" r:id="rId5" name="Check Box 180">
+            <control shapeId="2228" r:id="rId6" name="Check Box 180">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12973,7 +12968,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2229" r:id="rId6" name="Check Box 181">
+            <control shapeId="2229" r:id="rId7" name="Check Box 181">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12986,7 +12981,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12995,7 +12990,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2230" r:id="rId7" name="Check Box 182">
+            <control shapeId="2230" r:id="rId8" name="Check Box 182">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13008,7 +13003,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13017,7 +13012,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2231" r:id="rId8" name="Check Box 183">
+            <control shapeId="2231" r:id="rId9" name="Check Box 183">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13030,7 +13025,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13039,7 +13034,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2232" r:id="rId9" name="Check Box 184">
+            <control shapeId="2232" r:id="rId10" name="Check Box 184">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13052,7 +13047,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13061,7 +13056,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2233" r:id="rId10" name="Check Box 185">
+            <control shapeId="2233" r:id="rId11" name="Check Box 185">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13074,7 +13069,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13083,7 +13078,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2234" r:id="rId11" name="Check Box 186">
+            <control shapeId="2234" r:id="rId12" name="Check Box 186">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13096,7 +13091,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13105,7 +13100,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2235" r:id="rId12" name="Check Box 187">
+            <control shapeId="2235" r:id="rId13" name="Check Box 187">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13118,7 +13113,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13127,7 +13122,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2236" r:id="rId13" name="Check Box 188">
+            <control shapeId="2236" r:id="rId14" name="Check Box 188">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13140,7 +13135,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13149,7 +13144,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2237" r:id="rId14" name="Check Box 189">
+            <control shapeId="2237" r:id="rId15" name="Check Box 189">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13162,7 +13157,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13171,7 +13166,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2238" r:id="rId15" name="Check Box 190">
+            <control shapeId="2238" r:id="rId16" name="Check Box 190">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13184,7 +13179,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13193,7 +13188,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2239" r:id="rId16" name="Check Box 191">
+            <control shapeId="2239" r:id="rId17" name="Check Box 191">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13215,7 +13210,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2240" r:id="rId17" name="Check Box 192">
+            <control shapeId="2240" r:id="rId18" name="Check Box 192">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13228,7 +13223,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13237,7 +13232,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2241" r:id="rId18" name="Check Box 193">
+            <control shapeId="2241" r:id="rId19" name="Check Box 193">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13250,7 +13245,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13259,7 +13254,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2242" r:id="rId19" name="Check Box 194">
+            <control shapeId="2242" r:id="rId20" name="Check Box 194">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13272,7 +13267,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13281,7 +13276,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2243" r:id="rId20" name="Check Box 195">
+            <control shapeId="2243" r:id="rId21" name="Check Box 195">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13303,7 +13298,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2244" r:id="rId21" name="Check Box 196">
+            <control shapeId="2244" r:id="rId22" name="Check Box 196">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13316,7 +13311,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13325,7 +13320,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2245" r:id="rId22" name="Check Box 197">
+            <control shapeId="2245" r:id="rId23" name="Check Box 197">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13338,7 +13333,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13347,7 +13342,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2246" r:id="rId23" name="Check Box 198">
+            <control shapeId="2246" r:id="rId24" name="Check Box 198">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13369,7 +13364,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2247" r:id="rId24" name="Check Box 199">
+            <control shapeId="2247" r:id="rId25" name="Check Box 199">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13382,7 +13377,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13391,7 +13386,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2248" r:id="rId25" name="Check Box 200">
+            <control shapeId="2248" r:id="rId26" name="Check Box 200">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13402,9 +13397,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13413,7 +13408,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2249" r:id="rId26" name="Check Box 201">
+            <control shapeId="2249" r:id="rId27" name="Check Box 201">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13424,9 +13419,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13435,7 +13430,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2250" r:id="rId27" name="Check Box 202">
+            <control shapeId="2250" r:id="rId28" name="Check Box 202">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13446,7 +13441,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -13457,7 +13452,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2251" r:id="rId28" name="Check Box 203">
+            <control shapeId="2251" r:id="rId29" name="Check Box 203">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13468,9 +13463,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13479,7 +13474,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2252" r:id="rId29" name="Check Box 204">
+            <control shapeId="2252" r:id="rId30" name="Check Box 204">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13490,9 +13485,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13501,7 +13496,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2253" r:id="rId30" name="Check Box 205">
+            <control shapeId="2253" r:id="rId31" name="Check Box 205">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13512,9 +13507,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13523,7 +13518,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2254" r:id="rId31" name="Check Box 206">
+            <control shapeId="2254" r:id="rId32" name="Check Box 206">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13534,9 +13529,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13545,7 +13540,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2255" r:id="rId32" name="Check Box 207">
+            <control shapeId="2255" r:id="rId33" name="Check Box 207">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13556,9 +13551,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13567,7 +13562,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2256" r:id="rId33" name="Check Box 208">
+            <control shapeId="2256" r:id="rId34" name="Check Box 208">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13578,9 +13573,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13589,7 +13584,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2257" r:id="rId34" name="Check Box 209">
+            <control shapeId="2257" r:id="rId35" name="Check Box 209">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13600,9 +13595,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13611,7 +13606,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2258" r:id="rId35" name="Check Box 210">
+            <control shapeId="2258" r:id="rId36" name="Check Box 210">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13622,9 +13617,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13633,7 +13628,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2259" r:id="rId36" name="Check Box 211">
+            <control shapeId="2259" r:id="rId37" name="Check Box 211">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13644,9 +13639,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13655,7 +13650,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2260" r:id="rId37" name="Check Box 212">
+            <control shapeId="2260" r:id="rId38" name="Check Box 212">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13666,9 +13661,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13677,7 +13672,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2261" r:id="rId38" name="Check Box 213">
+            <control shapeId="2261" r:id="rId39" name="Check Box 213">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13688,7 +13683,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -13699,7 +13694,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2262" r:id="rId39" name="Check Box 214">
+            <control shapeId="2262" r:id="rId40" name="Check Box 214">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13710,9 +13705,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13721,7 +13716,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2263" r:id="rId40" name="Check Box 215">
+            <control shapeId="2263" r:id="rId41" name="Check Box 215">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13732,9 +13727,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13743,7 +13738,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2264" r:id="rId41" name="Check Box 216">
+            <control shapeId="2264" r:id="rId42" name="Check Box 216">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13754,9 +13749,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13765,7 +13760,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2265" r:id="rId42" name="Check Box 217">
+            <control shapeId="2265" r:id="rId43" name="Check Box 217">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13776,7 +13771,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -13787,7 +13782,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2266" r:id="rId43" name="Check Box 218">
+            <control shapeId="2266" r:id="rId44" name="Check Box 218">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13798,9 +13793,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13809,7 +13804,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2267" r:id="rId44" name="Check Box 219">
+            <control shapeId="2267" r:id="rId45" name="Check Box 219">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13820,9 +13815,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13831,7 +13826,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2268" r:id="rId45" name="Check Box 220">
+            <control shapeId="2268" r:id="rId46" name="Check Box 220">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13842,7 +13837,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -13853,7 +13848,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2269" r:id="rId46" name="Check Box 221">
+            <control shapeId="2269" r:id="rId47" name="Check Box 221">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13864,9 +13859,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13875,7 +13870,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2270" r:id="rId47" name="Check Box 222">
+            <control shapeId="2270" r:id="rId48" name="Check Box 222">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13888,7 +13883,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13897,7 +13892,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2271" r:id="rId48" name="Check Box 223">
+            <control shapeId="2271" r:id="rId49" name="Check Box 223">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13910,7 +13905,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13919,7 +13914,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2272" r:id="rId49" name="Check Box 224">
+            <control shapeId="2272" r:id="rId50" name="Check Box 224">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13941,7 +13936,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2273" r:id="rId50" name="Check Box 225">
+            <control shapeId="2273" r:id="rId51" name="Check Box 225">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13954,7 +13949,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13963,7 +13958,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2274" r:id="rId51" name="Check Box 226">
+            <control shapeId="2274" r:id="rId52" name="Check Box 226">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13976,7 +13971,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13985,7 +13980,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2275" r:id="rId52" name="Check Box 227">
+            <control shapeId="2275" r:id="rId53" name="Check Box 227">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13998,7 +13993,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14007,7 +14002,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2276" r:id="rId53" name="Check Box 228">
+            <control shapeId="2276" r:id="rId54" name="Check Box 228">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14020,7 +14015,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14029,7 +14024,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2277" r:id="rId54" name="Check Box 229">
+            <control shapeId="2277" r:id="rId55" name="Check Box 229">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14042,7 +14037,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14051,7 +14046,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2278" r:id="rId55" name="Check Box 230">
+            <control shapeId="2278" r:id="rId56" name="Check Box 230">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14064,7 +14059,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14073,7 +14068,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2279" r:id="rId56" name="Check Box 231">
+            <control shapeId="2279" r:id="rId57" name="Check Box 231">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14086,7 +14081,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14095,7 +14090,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2280" r:id="rId57" name="Check Box 232">
+            <control shapeId="2280" r:id="rId58" name="Check Box 232">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14108,7 +14103,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14117,7 +14112,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2281" r:id="rId58" name="Check Box 233">
+            <control shapeId="2281" r:id="rId59" name="Check Box 233">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14130,7 +14125,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14139,7 +14134,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2282" r:id="rId59" name="Check Box 234">
+            <control shapeId="2282" r:id="rId60" name="Check Box 234">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14152,7 +14147,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14161,7 +14156,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2283" r:id="rId60" name="Check Box 235">
+            <control shapeId="2283" r:id="rId61" name="Check Box 235">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14183,7 +14178,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2284" r:id="rId61" name="Check Box 236">
+            <control shapeId="2284" r:id="rId62" name="Check Box 236">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14196,7 +14191,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14205,7 +14200,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2285" r:id="rId62" name="Check Box 237">
+            <control shapeId="2285" r:id="rId63" name="Check Box 237">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14218,7 +14213,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14227,7 +14222,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2286" r:id="rId63" name="Check Box 238">
+            <control shapeId="2286" r:id="rId64" name="Check Box 238">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14240,7 +14235,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14249,7 +14244,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2287" r:id="rId64" name="Check Box 239">
+            <control shapeId="2287" r:id="rId65" name="Check Box 239">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14271,7 +14266,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2288" r:id="rId65" name="Check Box 240">
+            <control shapeId="2288" r:id="rId66" name="Check Box 240">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14284,7 +14279,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14293,7 +14288,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2289" r:id="rId66" name="Check Box 241">
+            <control shapeId="2289" r:id="rId67" name="Check Box 241">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14306,7 +14301,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14315,7 +14310,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2290" r:id="rId67" name="Check Box 242">
+            <control shapeId="2290" r:id="rId68" name="Check Box 242">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14337,7 +14332,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2291" r:id="rId68" name="Check Box 243">
+            <control shapeId="2291" r:id="rId69" name="Check Box 243">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14350,7 +14345,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14359,7 +14354,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2292" r:id="rId69" name="Check Box 244">
+            <control shapeId="2292" r:id="rId70" name="Check Box 244">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14372,7 +14367,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14381,7 +14376,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2293" r:id="rId70" name="Check Box 245">
+            <control shapeId="2293" r:id="rId71" name="Check Box 245">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14394,7 +14389,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14403,7 +14398,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2294" r:id="rId71" name="Check Box 246">
+            <control shapeId="2294" r:id="rId72" name="Check Box 246">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14425,7 +14420,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2295" r:id="rId72" name="Check Box 247">
+            <control shapeId="2295" r:id="rId73" name="Check Box 247">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14438,7 +14433,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14447,7 +14442,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2296" r:id="rId73" name="Check Box 248">
+            <control shapeId="2296" r:id="rId74" name="Check Box 248">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14460,7 +14455,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14469,7 +14464,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2297" r:id="rId74" name="Check Box 249">
+            <control shapeId="2297" r:id="rId75" name="Check Box 249">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14482,7 +14477,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14491,7 +14486,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2298" r:id="rId75" name="Check Box 250">
+            <control shapeId="2298" r:id="rId76" name="Check Box 250">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14504,7 +14499,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14513,7 +14508,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2299" r:id="rId76" name="Check Box 251">
+            <control shapeId="2299" r:id="rId77" name="Check Box 251">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14526,7 +14521,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14535,7 +14530,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2300" r:id="rId77" name="Check Box 252">
+            <control shapeId="2300" r:id="rId78" name="Check Box 252">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14548,7 +14543,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14557,7 +14552,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2301" r:id="rId78" name="Check Box 253">
+            <control shapeId="2301" r:id="rId79" name="Check Box 253">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14570,7 +14565,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14579,7 +14574,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2302" r:id="rId79" name="Check Box 254">
+            <control shapeId="2302" r:id="rId80" name="Check Box 254">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14592,7 +14587,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14601,7 +14596,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2303" r:id="rId80" name="Check Box 255">
+            <control shapeId="2303" r:id="rId81" name="Check Box 255">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14614,7 +14609,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14623,7 +14618,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2304" r:id="rId81" name="Check Box 256">
+            <control shapeId="2304" r:id="rId82" name="Check Box 256">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14636,7 +14631,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14645,7 +14640,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2305" r:id="rId82" name="Check Box 257">
+            <control shapeId="2305" r:id="rId83" name="Check Box 257">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14667,7 +14662,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2306" r:id="rId83" name="Check Box 258">
+            <control shapeId="2306" r:id="rId84" name="Check Box 258">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14680,7 +14675,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14689,7 +14684,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2307" r:id="rId84" name="Check Box 259">
+            <control shapeId="2307" r:id="rId85" name="Check Box 259">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14702,7 +14697,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14711,7 +14706,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2308" r:id="rId85" name="Check Box 260">
+            <control shapeId="2308" r:id="rId86" name="Check Box 260">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14724,7 +14719,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14733,7 +14728,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2309" r:id="rId86" name="Check Box 261">
+            <control shapeId="2309" r:id="rId87" name="Check Box 261">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14755,7 +14750,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2310" r:id="rId87" name="Check Box 262">
+            <control shapeId="2310" r:id="rId88" name="Check Box 262">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14768,7 +14763,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14777,7 +14772,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2311" r:id="rId88" name="Check Box 263">
+            <control shapeId="2311" r:id="rId89" name="Check Box 263">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14790,7 +14785,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14799,7 +14794,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2312" r:id="rId89" name="Check Box 264">
+            <control shapeId="2312" r:id="rId90" name="Check Box 264">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14821,7 +14816,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2313" r:id="rId90" name="Check Box 265">
+            <control shapeId="2313" r:id="rId91" name="Check Box 265">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14834,7 +14829,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14843,7 +14838,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2314" r:id="rId91" name="Check Box 266">
+            <control shapeId="2314" r:id="rId92" name="Check Box 266">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14856,7 +14851,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14865,7 +14860,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2315" r:id="rId92" name="Check Box 267">
+            <control shapeId="2315" r:id="rId93" name="Check Box 267">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14878,7 +14873,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14887,7 +14882,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2316" r:id="rId93" name="Check Box 268">
+            <control shapeId="2316" r:id="rId94" name="Check Box 268">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14909,7 +14904,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2317" r:id="rId94" name="Check Box 269">
+            <control shapeId="2317" r:id="rId95" name="Check Box 269">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14922,7 +14917,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14931,7 +14926,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2318" r:id="rId95" name="Check Box 270">
+            <control shapeId="2318" r:id="rId96" name="Check Box 270">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14944,7 +14939,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14953,7 +14948,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2319" r:id="rId96" name="Check Box 271">
+            <control shapeId="2319" r:id="rId97" name="Check Box 271">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14966,7 +14961,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14975,7 +14970,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2320" r:id="rId97" name="Check Box 272">
+            <control shapeId="2320" r:id="rId98" name="Check Box 272">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14988,7 +14983,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14997,7 +14992,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2321" r:id="rId98" name="Check Box 273">
+            <control shapeId="2321" r:id="rId99" name="Check Box 273">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15010,7 +15005,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15019,7 +15014,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2322" r:id="rId99" name="Check Box 274">
+            <control shapeId="2322" r:id="rId100" name="Check Box 274">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15032,7 +15027,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15041,7 +15036,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2323" r:id="rId100" name="Check Box 275">
+            <control shapeId="2323" r:id="rId101" name="Check Box 275">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15054,7 +15049,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15063,7 +15058,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2324" r:id="rId101" name="Check Box 276">
+            <control shapeId="2324" r:id="rId102" name="Check Box 276">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15076,7 +15071,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15085,7 +15080,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2325" r:id="rId102" name="Check Box 277">
+            <control shapeId="2325" r:id="rId103" name="Check Box 277">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15098,7 +15093,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15107,7 +15102,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2326" r:id="rId103" name="Check Box 278">
+            <control shapeId="2326" r:id="rId104" name="Check Box 278">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15120,7 +15115,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15129,7 +15124,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2327" r:id="rId104" name="Check Box 279">
+            <control shapeId="2327" r:id="rId105" name="Check Box 279">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15151,7 +15146,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2328" r:id="rId105" name="Check Box 280">
+            <control shapeId="2328" r:id="rId106" name="Check Box 280">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15164,7 +15159,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15173,7 +15168,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2329" r:id="rId106" name="Check Box 281">
+            <control shapeId="2329" r:id="rId107" name="Check Box 281">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15186,7 +15181,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15195,7 +15190,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2330" r:id="rId107" name="Check Box 282">
+            <control shapeId="2330" r:id="rId108" name="Check Box 282">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15208,7 +15203,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15217,7 +15212,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2331" r:id="rId108" name="Check Box 283">
+            <control shapeId="2331" r:id="rId109" name="Check Box 283">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15239,7 +15234,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2332" r:id="rId109" name="Check Box 284">
+            <control shapeId="2332" r:id="rId110" name="Check Box 284">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15252,7 +15247,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15261,7 +15256,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2333" r:id="rId110" name="Check Box 285">
+            <control shapeId="2333" r:id="rId111" name="Check Box 285">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15274,7 +15269,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15283,7 +15278,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2334" r:id="rId111" name="Check Box 286">
+            <control shapeId="2334" r:id="rId112" name="Check Box 286">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15305,7 +15300,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2335" r:id="rId112" name="Check Box 287">
+            <control shapeId="2335" r:id="rId113" name="Check Box 287">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15318,7 +15313,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15327,7 +15322,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2336" r:id="rId113" name="Check Box 288">
+            <control shapeId="2336" r:id="rId114" name="Check Box 288">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15340,7 +15335,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15349,7 +15344,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2337" r:id="rId114" name="Check Box 289">
+            <control shapeId="2337" r:id="rId115" name="Check Box 289">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15362,7 +15357,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15371,7 +15366,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2338" r:id="rId115" name="Check Box 290">
+            <control shapeId="2338" r:id="rId116" name="Check Box 290">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15382,9 +15377,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15393,7 +15388,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2339" r:id="rId116" name="Check Box 291">
+            <control shapeId="2339" r:id="rId117" name="Check Box 291">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15404,9 +15399,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15415,7 +15410,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2340" r:id="rId117" name="Check Box 292">
+            <control shapeId="2340" r:id="rId118" name="Check Box 292">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15428,7 +15423,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15437,7 +15432,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2341" r:id="rId118" name="Check Box 293">
+            <control shapeId="2341" r:id="rId119" name="Check Box 293">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15450,7 +15445,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15459,7 +15454,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2342" r:id="rId119" name="Check Box 294">
+            <control shapeId="2342" r:id="rId120" name="Check Box 294">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15472,7 +15467,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15481,7 +15476,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2343" r:id="rId120" name="Check Box 295">
+            <control shapeId="2343" r:id="rId121" name="Check Box 295">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15494,7 +15489,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15503,7 +15498,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2344" r:id="rId121" name="Check Box 296">
+            <control shapeId="2344" r:id="rId122" name="Check Box 296">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15516,7 +15511,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15525,7 +15520,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2345" r:id="rId122" name="Check Box 297">
+            <control shapeId="2345" r:id="rId123" name="Check Box 297">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15538,7 +15533,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15547,7 +15542,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2347" r:id="rId123" name="Check Box 299">
+            <control shapeId="2347" r:id="rId124" name="Check Box 299">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15560,7 +15555,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15569,7 +15564,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2348" r:id="rId124" name="Check Box 300">
+            <control shapeId="2348" r:id="rId125" name="Check Box 300">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15580,9 +15575,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15591,7 +15586,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2349" r:id="rId125" name="Check Box 301">
+            <control shapeId="2349" r:id="rId126" name="Check Box 301">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15604,7 +15599,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15613,7 +15608,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2350" r:id="rId126" name="Check Box 302">
+            <control shapeId="2350" r:id="rId127" name="Check Box 302">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15626,7 +15621,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15635,7 +15630,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2351" r:id="rId127" name="Check Box 303">
+            <control shapeId="2351" r:id="rId128" name="Check Box 303">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15648,7 +15643,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>609600</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15657,7 +15652,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2352" r:id="rId128" name="Check Box 304">
+            <control shapeId="2352" r:id="rId129" name="Check Box 304">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15679,7 +15674,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2353" r:id="rId129" name="Check Box 305">
+            <control shapeId="2353" r:id="rId130" name="Check Box 305">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15690,7 +15685,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -15701,7 +15696,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2354" r:id="rId130" name="Check Box 306">
+            <control shapeId="2354" r:id="rId131" name="Check Box 306">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15723,7 +15718,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2355" r:id="rId131" name="Check Box 307">
+            <control shapeId="2355" r:id="rId132" name="Check Box 307">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15745,7 +15740,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2356" r:id="rId132" name="Check Box 308">
+            <control shapeId="2356" r:id="rId133" name="Check Box 308">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
